--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="public" sheetId="2" r:id="rId1"/>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
